--- a/outputs/weights.xlsx
+++ b/outputs/weights.xlsx
@@ -542,115 +542,115 @@
         <v>-0.2076746076345444</v>
       </c>
       <c r="C3">
-        <v>0.07662343978881836</v>
+        <v>0.07662349939346313</v>
       </c>
       <c r="D3">
-        <v>-0.05392873287200928</v>
+        <v>-0.05392879247665405</v>
       </c>
       <c r="E3">
-        <v>0.01075983792543411</v>
+        <v>0.01075983420014381</v>
       </c>
       <c r="F3">
         <v>0.086724653840065</v>
       </c>
       <c r="G3">
-        <v>-0.1409100294113159</v>
+        <v>-0.1409100890159607</v>
       </c>
       <c r="H3">
-        <v>-0.1972488015890121</v>
+        <v>-0.1972488462924957</v>
       </c>
       <c r="I3">
-        <v>-0.1622327417135239</v>
+        <v>-0.1622328013181686</v>
       </c>
       <c r="J3">
-        <v>-0.1766829639673233</v>
+        <v>-0.1766830235719681</v>
       </c>
       <c r="K3">
-        <v>-0.2396257817745209</v>
+        <v>-0.2396257966756821</v>
       </c>
       <c r="L3">
-        <v>0.1659047305583954</v>
+        <v>0.109890915453434</v>
       </c>
       <c r="M3">
-        <v>-0.02646389231085777</v>
+        <v>-0.02496486529707909</v>
       </c>
       <c r="N3">
-        <v>0.1829278320074081</v>
+        <v>0.2263920903205872</v>
       </c>
       <c r="O3">
-        <v>0.1800797283649445</v>
+        <v>0.1658805906772614</v>
       </c>
       <c r="P3">
-        <v>0.1947781145572662</v>
+        <v>0.2315234988927841</v>
       </c>
       <c r="Q3">
-        <v>-0.1082182675600052</v>
+        <v>-0.01725864037871361</v>
       </c>
       <c r="R3">
-        <v>0.1098909229040146</v>
+        <v>0.1947780251502991</v>
       </c>
       <c r="S3">
-        <v>0.1658806353807449</v>
+        <v>0.0866612121462822</v>
       </c>
       <c r="T3">
-        <v>0.2315235584974289</v>
+        <v>0.1413764208555222</v>
       </c>
       <c r="U3">
-        <v>0.1413764208555222</v>
+        <v>0.1468082815408707</v>
       </c>
       <c r="V3">
-        <v>0.02433528564870358</v>
+        <v>0.2310174703598022</v>
       </c>
       <c r="W3">
-        <v>0.2310175150632858</v>
+        <v>0.2325390130281448</v>
       </c>
       <c r="X3">
-        <v>-0.0172586552798748</v>
+        <v>-0.02646392770111561</v>
       </c>
       <c r="Y3">
-        <v>-0.0249648205935955</v>
+        <v>0.1829277575016022</v>
       </c>
       <c r="Z3">
-        <v>0.2433552742004395</v>
+        <v>0.1817262321710587</v>
       </c>
       <c r="AA3">
-        <v>0.1468082368373871</v>
+        <v>-0.1056106388568878</v>
       </c>
       <c r="AB3">
+        <v>0.2433552443981171</v>
+      </c>
+      <c r="AC3">
+        <v>0.1800796985626221</v>
+      </c>
+      <c r="AD3">
+        <v>-0.1667784154415131</v>
+      </c>
+      <c r="AE3">
+        <v>0.2344725579023361</v>
+      </c>
+      <c r="AF3">
+        <v>0.165904700756073</v>
+      </c>
+      <c r="AG3">
+        <v>0.08048444241285324</v>
+      </c>
+      <c r="AH3">
+        <v>0.1555950939655304</v>
+      </c>
+      <c r="AI3">
+        <v>0.2333129942417145</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1082182824611664</v>
+      </c>
+      <c r="AK3">
         <v>0.2216106355190277</v>
       </c>
-      <c r="AC3">
-        <v>-0.1056106314063072</v>
-      </c>
-      <c r="AD3">
-        <v>0.2344726026058197</v>
-      </c>
-      <c r="AE3">
-        <v>0.009358733892440796</v>
-      </c>
-      <c r="AF3">
-        <v>0.1817262917757034</v>
-      </c>
-      <c r="AG3">
-        <v>0.08666115254163742</v>
-      </c>
-      <c r="AH3">
-        <v>0.08048445731401443</v>
-      </c>
-      <c r="AI3">
-        <v>0.1555950492620468</v>
-      </c>
-      <c r="AJ3">
-        <v>0.2325390726327896</v>
-      </c>
-      <c r="AK3">
-        <v>0.2333130538463593</v>
-      </c>
       <c r="AL3">
-        <v>-0.1667784452438354</v>
+        <v>0.009358734823763371</v>
       </c>
       <c r="AM3">
-        <v>0.2263921499252319</v>
+        <v>0.02433525957167149</v>
       </c>
     </row>
   </sheetData>
